--- a/output/StructureDefinition-NatlDirEx-restriction.xlsx
+++ b/output/StructureDefinition-NatlDirEx-restriction.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-restriction</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-Restriction</t>
   </si>
   <si>
     <t>Version</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve"> NatlDirEx Restriction</t>
+    <t>National Directory Restriction</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2017-12-15T01:01:31.325+11:00</t>
+    <t>2022-04-05T18:56:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Restriction on use/release of exchanged information</t>
+    <t>Restriction describes details about a...</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Consent</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-Restriction</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -551,7 +551,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/ConsentVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/ConsentVS</t>
   </si>
   <si>
     <t>Consent.category</t>
@@ -943,7 +943,7 @@
     <t>Consent.provision.actor.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-Organization|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-CareTeam|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-Practitioner)
+    <t xml:space="preserve">Reference(Device|Group|CareTeam|Organization|Patient|Practitioner|RelatedPerson|PractitionerRole)
 </t>
   </si>
   <si>
@@ -1473,7 +1473,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.80078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.9921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-NatlDirEx-restriction.xlsx
+++ b/output/StructureDefinition-NatlDirEx-restriction.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:56:51-04:00</t>
+    <t>2022-06-17T09:52:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-restriction.xlsx
+++ b/output/StructureDefinition-NatlDirEx-restriction.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-17T09:52:28-04:00</t>
+    <t>2022-07-25T12:57:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1468,25 +1468,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.80078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.8046875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.9921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="45.61328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.96484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.96875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -4280,7 +4280,7 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>

--- a/output/StructureDefinition-NatlDirEx-restriction.xlsx
+++ b/output/StructureDefinition-NatlDirEx-restriction.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T12:57:48-04:00</t>
+    <t>2022-07-25T14:11:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-restriction.xlsx
+++ b/output/StructureDefinition-NatlDirEx-restriction.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:11:25-04:00</t>
+    <t>2022-07-25T13:43:16-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1449,45 +1449,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.03515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.10546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.18359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.8046875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.9921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.84765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.84765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.96875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.09765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.6875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-NatlDirEx-restriction.xlsx
+++ b/output/StructureDefinition-NatlDirEx-restriction.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-Restriction</t>
+    <t>http://hl7.org/fhir/us/directory-exchange/StructureDefinition/NatlDirEx-Restriction</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot1</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:43:16-05:00</t>
+    <t>2022-09-21T22:39:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-Restriction</t>
+    <t>http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDir-Restriction</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -551,7 +551,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/ConsentVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/ConsentVS</t>
   </si>
   <si>
     <t>Consent.category</t>
@@ -1473,7 +1473,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.84765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.84765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="18.84765625" customWidth="true" bestFit="true"/>
